--- a/Test Data/TC_51822_Verify_Addition_Of_Sounders_In_LPS800.xlsx
+++ b/Test Data/TC_51822_Verify_Addition_Of_Sounders_In_LPS800.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B43C61-82D7-41E1-A9E3-D005C5A32972}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4779EF4B-A5AA-4B49-964A-2BF9A9B69D74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
